--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="14670" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:I20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Application URL</t>
   </si>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -166,6 +166,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +540,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -552,9 +573,10 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>http://172.16.2.16/OCM</t>
   </si>
   <si>
-    <t>Welcome@123</t>
-  </si>
-  <si>
     <t>BENGTETH</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Cheker</t>
+  </si>
+  <si>
+    <t>Welcome@2019</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +487,14 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -502,19 +502,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -522,39 +522,39 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -638,18 +638,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Application URL</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Welcome@2019</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +551,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Application URL</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>http://172.16.2.16/AgentScripting#</t>
+  </si>
+  <si>
+    <t>http://172.16.2.16:63083/IW_Chat_UI#</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +570,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
@@ -577,14 +624,19 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -628,6 +680,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Application URL</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>http://172.16.2.16:63083/IW_Chat_UI#</t>
+  </si>
+  <si>
+    <t>http://172.16.2.16:63083/IWIVR#</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,11 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +585,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
@@ -607,6 +609,26 @@
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -628,15 +650,16 @@
     <hyperlink ref="C6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="A8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,7 +703,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Application URL</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>http://172.16.2.16:63083/IWIVR#</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t>40027</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +466,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +736,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -16,12 +16,11 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Application URL</t>
   </si>
@@ -117,6 +116,9 @@
   </si>
   <si>
     <t>40027</t>
+  </si>
+  <si>
+    <t>https://172.16.2.16:15012/api/testapp.jsp</t>
   </si>
 </sst>
 </file>
@@ -455,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +480,7 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -518,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -538,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -558,7 +560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -578,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -598,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -618,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -636,6 +638,11 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -658,9 +665,10 @@
     <hyperlink ref="C7" r:id="rId8"/>
     <hyperlink ref="C8" r:id="rId9"/>
     <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Application URL</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Select User Type</t>
   </si>
   <si>
-    <t>http://172.16.2.16/OCM</t>
-  </si>
-  <si>
     <t>BENGTETH</t>
   </si>
   <si>
@@ -119,6 +116,18 @@
   </si>
   <si>
     <t>https://172.16.2.16:15012/api/testapp.jsp</t>
+  </si>
+  <si>
+    <t>TestQASupervisor</t>
+  </si>
+  <si>
+    <t>40022</t>
+  </si>
+  <si>
+    <t>TestQAAgent</t>
+  </si>
+  <si>
+    <t>40030</t>
   </si>
 </sst>
 </file>
@@ -170,12 +179,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -467,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,156 +507,156 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>32</v>
+      <c r="A9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -658,17 +664,18 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="C7" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="C5" r:id="rId11"/>
+    <hyperlink ref="A2" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -677,7 +684,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,10 +724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,26 +737,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Application URL</t>
   </si>
@@ -128,6 +129,9 @@
   </si>
   <si>
     <t>40030</t>
+  </si>
+  <si>
+    <t>http://172.16.2.16</t>
   </si>
 </sst>
 </file>
@@ -463,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +653,26 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -673,9 +697,13 @@
     <hyperlink ref="A9" r:id="rId10"/>
     <hyperlink ref="C5" r:id="rId11"/>
     <hyperlink ref="A2" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A12" r:id="rId14"/>
+    <hyperlink ref="A11" r:id="rId15"/>
+    <hyperlink ref="A10" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -726,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Cheker</t>
   </si>
   <si>
-    <t>Welcome@2019</t>
-  </si>
-  <si>
     <t>Welcome@123</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>http://172.16.2.16</t>
+  </si>
+  <si>
+    <t>TetherfiBlr@123</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -558,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,17 +662,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -685,25 +685,23 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="A8" r:id="rId9"/>
-    <hyperlink ref="A9" r:id="rId10"/>
-    <hyperlink ref="C5" r:id="rId11"/>
-    <hyperlink ref="A2" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A12" r:id="rId14"/>
-    <hyperlink ref="A11" r:id="rId15"/>
-    <hyperlink ref="A10" r:id="rId16"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="A10" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -781,26 +779,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Cheker</t>
   </si>
   <si>
-    <t>Welcome@123</t>
-  </si>
-  <si>
     <t>http://172.16.2.16/AgentScripting#</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>TetherfiBlr@123</t>
+  </si>
+  <si>
+    <t>Welcome@2019</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -558,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,17 +662,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -688,17 +688,17 @@
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A2" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A11" r:id="rId13"/>
-    <hyperlink ref="A10" r:id="rId14"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A13" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -779,26 +779,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Application URL</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Welcome@2019</t>
+  </si>
+  <si>
+    <t>http://172.16.2.16:63443/TMAC_UI/</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,12 +678,32 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5 D14">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -699,9 +722,10 @@
     <hyperlink ref="C6" r:id="rId12"/>
     <hyperlink ref="C7" r:id="rId13"/>
     <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Application URL</t>
   </si>
@@ -128,13 +128,16 @@
     <t>http://172.16.2.16</t>
   </si>
   <si>
-    <t>TetherfiBlr@123</t>
-  </si>
-  <si>
     <t>Welcome@2019</t>
   </si>
   <si>
     <t>http://172.16.2.16:63443/TMAC_UI/</t>
+  </si>
+  <si>
+    <t>TetherfiBlr@456</t>
+  </si>
+  <si>
+    <t>Tetherfi@456</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -561,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -581,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -601,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -621,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -641,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -680,13 +683,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -723,9 +726,12 @@
     <hyperlink ref="C7" r:id="rId13"/>
     <hyperlink ref="C8" r:id="rId14"/>
     <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="C2" r:id="rId16"/>
+    <hyperlink ref="C14" r:id="rId17"/>
+    <hyperlink ref="C5" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Tetherfi@456</t>
+  </si>
+  <si>
+    <t>http://10.133.146.17:56080/SG/UOB_OCM</t>
+  </si>
+  <si>
+    <t>TetherfiJune@2019</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +705,23 @@
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -729,9 +752,11 @@
     <hyperlink ref="C2" r:id="rId16"/>
     <hyperlink ref="C14" r:id="rId17"/>
     <hyperlink ref="C5" r:id="rId18"/>
+    <hyperlink ref="A15" r:id="rId19"/>
+    <hyperlink ref="C15" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -134,9 +134,6 @@
     <t>http://172.16.2.16:63443/TMAC_UI/</t>
   </si>
   <si>
-    <t>TetherfiBlr@456</t>
-  </si>
-  <si>
     <t>Tetherfi@456</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>TetherfiJune@2019</t>
+  </si>
+  <si>
+    <t>TetherfiBlr@789</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -570,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -695,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>TetherfiBlr@789</t>
+  </si>
+  <si>
+    <t>TetherfiJuly@2019</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,7 +493,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,17 +526,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+      <c r="A2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -740,20 +743,20 @@
     <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A8" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
-    <hyperlink ref="A13" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="C6" r:id="rId12"/>
-    <hyperlink ref="C7" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="A14" r:id="rId15"/>
-    <hyperlink ref="C2" r:id="rId16"/>
-    <hyperlink ref="C14" r:id="rId17"/>
-    <hyperlink ref="C5" r:id="rId18"/>
-    <hyperlink ref="A15" r:id="rId19"/>
-    <hyperlink ref="C15" r:id="rId20"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A12" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="C2" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId16"/>
+    <hyperlink ref="C5" r:id="rId17"/>
+    <hyperlink ref="A15" r:id="rId18"/>
+    <hyperlink ref="C15" r:id="rId19"/>
+    <hyperlink ref="A2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>TetherfiBlr@789</t>
-  </si>
-  <si>
-    <t>TetherfiJuly@2019</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,7 +490,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,17 +523,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -751,15 +748,14 @@
     <hyperlink ref="C7" r:id="rId12"/>
     <hyperlink ref="C8" r:id="rId13"/>
     <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="C2" r:id="rId15"/>
-    <hyperlink ref="C14" r:id="rId16"/>
-    <hyperlink ref="C5" r:id="rId17"/>
-    <hyperlink ref="A15" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19"/>
-    <hyperlink ref="A2" r:id="rId20"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="C5" r:id="rId16"/>
+    <hyperlink ref="A15" r:id="rId17"/>
+    <hyperlink ref="C15" r:id="rId18"/>
+    <hyperlink ref="C2" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>TetherfiBlr@789</t>
+  </si>
+  <si>
+    <t>TetherfiBlr@890</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,9 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Application URL</t>
   </si>
@@ -125,22 +125,10 @@
     <t>40030</t>
   </si>
   <si>
-    <t>http://172.16.2.16</t>
-  </si>
-  <si>
     <t>Welcome@2019</t>
   </si>
   <si>
-    <t>http://172.16.2.16:63443/TMAC_UI/</t>
-  </si>
-  <si>
     <t>Tetherfi@456</t>
-  </si>
-  <si>
-    <t>http://10.133.146.17:56080/SG/UOB_OCM</t>
-  </si>
-  <si>
-    <t>TetherfiJune@2019</t>
   </si>
   <si>
     <t>TetherfiBlr@789</t>
@@ -482,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -531,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -571,7 +561,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -591,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -611,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -631,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -651,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -669,61 +659,29 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -741,22 +699,14 @@
     <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A8" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A13" r:id="rId7"/>
-    <hyperlink ref="A12" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="C14" r:id="rId15"/>
-    <hyperlink ref="C5" r:id="rId16"/>
-    <hyperlink ref="A15" r:id="rId17"/>
-    <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -222,6 +222,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -482,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,18 +495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -543,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -563,7 +568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -583,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -603,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -623,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -643,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -663,32 +668,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -708,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -754,9 +759,10 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="A2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -768,13 +774,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -782,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -790,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -811,12 +817,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -824,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -832,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -840,7 +846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -848,7 +854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="3830"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +539,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="3830"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -82,12 +83,6 @@
     <t>http://172.16.2.16/OCM/</t>
   </si>
   <si>
-    <t>Akshith</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
     <t>IndiaTetherfi</t>
   </si>
   <si>
@@ -143,6 +138,12 @@
   </si>
   <si>
     <t>TetherfiBlr@789</t>
+  </si>
+  <si>
+    <t>Aaravind</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
 </sst>
 </file>
@@ -481,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,19 +493,19 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -532,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -544,27 +545,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -572,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -584,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -592,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -604,15 +605,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -624,15 +625,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -644,15 +645,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -664,40 +665,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -709,21 +710,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -769,10 +770,10 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -812,9 +813,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -835,26 +836,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -140,10 +140,13 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>Aaravind</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
+    <t>Tetherfi@123</t>
+  </si>
+  <si>
+    <t>abcd1234$</t>
+  </si>
+  <si>
+    <t>http://172.16.2.49:63080/OCM_UI/</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,18 +528,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -547,16 +550,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -737,7 +740,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
@@ -756,9 +759,11 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="A2" r:id="rId20"/>
+    <hyperlink ref="A3" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -140,13 +140,10 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>Tetherfi@123</t>
-  </si>
-  <si>
-    <t>abcd1234$</t>
-  </si>
-  <si>
-    <t>http://172.16.2.49:63080/OCM_UI/</t>
+    <t>Aaravind</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
 </sst>
 </file>
@@ -198,11 +195,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,7 +490,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,17 +523,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -549,73 +543,73 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
@@ -629,104 +623,104 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -740,7 +734,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
+    <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
@@ -759,11 +753,9 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
-    <hyperlink ref="A2" r:id="rId20"/>
-    <hyperlink ref="A3" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -835,31 +827,31 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -140,10 +140,13 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>Aaravind</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
+    <t>http://172.16.2.49:63080/OCM_UI</t>
+  </si>
+  <si>
+    <t>abcd1234$</t>
+  </si>
+  <si>
+    <t>TetherfiBlr@900</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,7 +493,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +505,7 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +530,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -543,17 +546,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
+      <c r="A3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -734,7 +737,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
@@ -752,10 +755,11 @@
     <hyperlink ref="C5" r:id="rId16"/>
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="A3" r:id="rId19"/>
+    <hyperlink ref="C2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:F20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Application URL</t>
   </si>
@@ -65,9 +65,6 @@
     <t>BENGTETH</t>
   </si>
   <si>
-    <t>http://172.16.2.16/TMAC_UI/</t>
-  </si>
-  <si>
     <t>Lan Id</t>
   </si>
   <si>
@@ -83,6 +80,12 @@
     <t>http://172.16.2.16/OCM/</t>
   </si>
   <si>
+    <t>Akshith</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
     <t>IndiaTetherfi</t>
   </si>
   <si>
@@ -128,32 +131,35 @@
     <t>http://172.16.2.16:63443/TMAC_UI/</t>
   </si>
   <si>
-    <t>Tetherfi@456</t>
-  </si>
-  <si>
     <t>http://10.133.146.17:56080/SG/UOB_OCM</t>
   </si>
   <si>
-    <t>TetherfiJune@2019</t>
-  </si>
-  <si>
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>http://172.16.2.49:63080/OCM_UI</t>
-  </si>
-  <si>
-    <t>abcd1234$</t>
-  </si>
-  <si>
-    <t>TetherfiBlr@900</t>
+    <t>tetherfi@123</t>
+  </si>
+  <si>
+    <t>http://172.16.2.26:55000/Tetherfi_OCM_SG#</t>
+  </si>
+  <si>
+    <t>Poorvi</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
+  </si>
+  <si>
+    <t>TetherfiJuly@2019</t>
+  </si>
+  <si>
+    <t>http://172.16.2.26:55000/Tetherfi_TMAC_SG/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +178,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,8 +212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -209,6 +226,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,14 +513,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,20 +546,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -549,182 +569,182 @@
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -737,29 +757,31 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A13" r:id="rId7"/>
-    <hyperlink ref="A12" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="C14" r:id="rId15"/>
-    <hyperlink ref="C5" r:id="rId16"/>
-    <hyperlink ref="A15" r:id="rId17"/>
-    <hyperlink ref="C15" r:id="rId18"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="C5" r:id="rId17"/>
+    <hyperlink ref="A2" r:id="rId18"/>
     <hyperlink ref="A3" r:id="rId19"/>
-    <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="A4" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId21"/>
+    <hyperlink ref="A5" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -777,7 +799,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -785,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -793,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -811,7 +833,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,44 +841,44 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F20"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -65,6 +65,9 @@
     <t>BENGTETH</t>
   </si>
   <si>
+    <t>http://172.16.2.16/TMAC_UI/</t>
+  </si>
+  <si>
     <t>Lan Id</t>
   </si>
   <si>
@@ -80,12 +83,6 @@
     <t>http://172.16.2.16/OCM/</t>
   </si>
   <si>
-    <t>Akshith</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
     <t>IndiaTetherfi</t>
   </si>
   <si>
@@ -131,35 +128,32 @@
     <t>http://172.16.2.16:63443/TMAC_UI/</t>
   </si>
   <si>
+    <t>Tetherfi@456</t>
+  </si>
+  <si>
     <t>http://10.133.146.17:56080/SG/UOB_OCM</t>
   </si>
   <si>
+    <t>TetherfiJune@2019</t>
+  </si>
+  <si>
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>tetherfi@123</t>
-  </si>
-  <si>
-    <t>http://172.16.2.26:55000/Tetherfi_OCM_SG#</t>
-  </si>
-  <si>
-    <t>Poorvi</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
-  </si>
-  <si>
-    <t>TetherfiJuly@2019</t>
-  </si>
-  <si>
-    <t>http://172.16.2.26:55000/Tetherfi_TMAC_SG/</t>
+    <t>http://172.16.2.49:63080/OCM_UI</t>
+  </si>
+  <si>
+    <t>abcd1234$</t>
+  </si>
+  <si>
+    <t>Tetherfi@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,14 +172,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,11 +198,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,9 +209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,14 +493,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -549,17 +529,17 @@
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -569,182 +549,182 @@
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -757,31 +737,30 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="C15" r:id="rId16"/>
-    <hyperlink ref="C5" r:id="rId17"/>
-    <hyperlink ref="A2" r:id="rId18"/>
+    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A12" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="C5" r:id="rId16"/>
+    <hyperlink ref="A15" r:id="rId17"/>
+    <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="A3" r:id="rId19"/>
-    <hyperlink ref="A4" r:id="rId20"/>
-    <hyperlink ref="C2" r:id="rId21"/>
-    <hyperlink ref="A5" r:id="rId22"/>
+    <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="A2" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -799,7 +778,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -807,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -815,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -833,7 +812,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,44 +820,44 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
@@ -16,7 +16,6 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -482,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,7 +492,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -139,13 +140,13 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>http://172.16.2.49:63080/OCM_UI</t>
-  </si>
-  <si>
-    <t>abcd1234$</t>
-  </si>
-  <si>
-    <t>Tetherfi@123</t>
+    <t>Aaravind</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
+  </si>
+  <si>
+    <t>http://172.16.2.49:63080/OCM_UI/</t>
   </si>
 </sst>
 </file>
@@ -492,7 +493,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,14 +526,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
+      <c r="A2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -545,17 +546,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -564,7 +565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -584,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -604,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -624,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -644,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -664,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -736,7 +737,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
+    <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
@@ -754,12 +755,11 @@
     <hyperlink ref="C5" r:id="rId16"/>
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="A3" r:id="rId19"/>
-    <hyperlink ref="C2" r:id="rId20"/>
-    <hyperlink ref="A2" r:id="rId21"/>
+    <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="A2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -777,7 +777,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -819,7 +819,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -843,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -851,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -140,13 +140,10 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
-    <t>Aaravind</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
-  </si>
-  <si>
-    <t>http://172.16.2.49:63080/OCM_UI/</t>
+    <t>TetherfiBlr@910</t>
+  </si>
+  <si>
+    <t>abcd1234$</t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,16 +524,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -550,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
@@ -737,7 +734,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
@@ -756,10 +753,9 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
-    <hyperlink ref="A2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -140,10 +140,13 @@
     <t>TetherfiBlr@789</t>
   </si>
   <si>
+    <t>abcd1234$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.2.49:63080/OCM_UI  </t>
+  </si>
+  <si>
     <t>TetherfiBlr@910</t>
-  </si>
-  <si>
-    <t>abcd1234$</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -544,16 +547,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -726,7 +729,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5 D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14">
       <formula1>(LoginType)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14">
@@ -753,9 +756,10 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
+    <hyperlink ref="A2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>abcd1234$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.2.49:63080/OCM_UI  </t>
   </si>
   <si>
     <t>TetherfiBlr@910</t>
@@ -493,7 +490,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -547,7 +544,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -556,7 +553,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -757,9 +754,10 @@
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
     <hyperlink ref="A2" r:id="rId20"/>
+    <hyperlink ref="A3" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -16,12 +16,11 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Application URL</t>
   </si>
@@ -143,7 +142,10 @@
     <t>abcd1234$</t>
   </si>
   <si>
-    <t>TetherfiBlr@910</t>
+    <t>TetherfiBlr@920</t>
+  </si>
+  <si>
+    <t>http://172.16.2.61:1616/UI#</t>
   </si>
 </sst>
 </file>
@@ -487,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,12 +726,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -755,9 +777,10 @@
     <hyperlink ref="C2" r:id="rId19"/>
     <hyperlink ref="A2" r:id="rId20"/>
     <hyperlink ref="A3" r:id="rId21"/>
+    <hyperlink ref="C16" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Application URL</t>
   </si>
@@ -146,13 +146,19 @@
   </si>
   <si>
     <t>http://172.16.2.61:1616/UI#</t>
+  </si>
+  <si>
+    <t>Tetherfi@900</t>
+  </si>
+  <si>
+    <t>QATetherfi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +180,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="OCMFont"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -208,6 +219,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -504,7 +516,7 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,29 +536,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -557,14 +569,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -584,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -604,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -624,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -644,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -664,32 +676,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -709,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -726,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -746,9 +758,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16:D17">
       <formula1>(LoginType)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16">
@@ -775,12 +807,11 @@
     <hyperlink ref="A15" r:id="rId17"/>
     <hyperlink ref="C15" r:id="rId18"/>
     <hyperlink ref="C2" r:id="rId19"/>
-    <hyperlink ref="A2" r:id="rId20"/>
-    <hyperlink ref="A3" r:id="rId21"/>
-    <hyperlink ref="C16" r:id="rId22"/>
+    <hyperlink ref="C16" r:id="rId20"/>
+    <hyperlink ref="C17" r:id="rId21" display="P@ssw0rd@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -792,13 +823,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -806,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -814,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -835,12 +866,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -848,7 +879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -856,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -864,7 +895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -872,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -148,7 +148,7 @@
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
-    <t>Tetherfi@900</t>
+    <t>Tetherfi@920</t>
   </si>
   <si>
     <t>QATetherfi</t>
@@ -504,7 +504,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,30 +788,29 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="P@ssw0rd@123"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A13" r:id="rId7"/>
-    <hyperlink ref="A12" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="C14" r:id="rId15"/>
-    <hyperlink ref="C5" r:id="rId16"/>
-    <hyperlink ref="A15" r:id="rId17"/>
-    <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="C2" r:id="rId19"/>
-    <hyperlink ref="C16" r:id="rId20"/>
-    <hyperlink ref="C17" r:id="rId21" display="P@ssw0rd@123"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="C15" r:id="rId17"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
+    <hyperlink ref="C2" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C86AF4-E86A-40E0-B398-E7448B127112}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -148,16 +149,16 @@
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
-    <t>Tetherfi@920</t>
-  </si>
-  <si>
     <t>QATetherfi</t>
+  </si>
+  <si>
+    <t>Tetherfi@930</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -500,20 +501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -544,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -570,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -780,34 +781,34 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C5" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
-    <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
@@ -815,17 +816,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -858,16 +859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -148,10 +149,10 @@
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
-    <t>Tetherfi@920</t>
-  </si>
-  <si>
     <t>QATetherfi</t>
+  </si>
+  <si>
+    <t>Tetherfi@930</t>
   </si>
 </sst>
 </file>
@@ -493,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,7 +505,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -570,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Application URL</t>
   </si>
@@ -148,10 +149,13 @@
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
-    <t>Tetherfi@920</t>
-  </si>
-  <si>
     <t>QATetherfi</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Tetherfi@930</t>
   </si>
 </sst>
 </file>
@@ -501,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,7 +520,7 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -544,19 +548,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -570,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -595,8 +599,11 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -616,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -636,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -656,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -676,32 +683,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -721,7 +728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -738,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -808,9 +815,10 @@
     <hyperlink ref="C16" r:id="rId18"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
     <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="A2" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,7 +152,10 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>Tetherfi@930</t>
+    <t>Meghna</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,13 +542,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -809,9 +812,10 @@
     <hyperlink ref="C16" r:id="rId18"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
     <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="A2" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C86AF4-E86A-40E0-B398-E7448B127112}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D985C29-C65A-4783-8362-546112D7F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,7 +152,10 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>Tetherfi@930</t>
+    <t>P@ssw0rd@123</t>
+  </si>
+  <si>
+    <t>meghna</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -539,10 +542,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>43</v>
@@ -808,10 +811,9 @@
     <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Application URL</t>
   </si>
@@ -104,9 +104,6 @@
     <t>40027</t>
   </si>
   <si>
-    <t>https://172.16.2.16:15012/api/testapp.jsp</t>
-  </si>
-  <si>
     <t>TestQASupervisor</t>
   </si>
   <si>
@@ -119,40 +116,31 @@
     <t>40030</t>
   </si>
   <si>
-    <t>http://172.16.2.16</t>
-  </si>
-  <si>
     <t>Welcome@2019</t>
   </si>
   <si>
-    <t>http://172.16.2.16:63443/TMAC_UI/</t>
-  </si>
-  <si>
     <t>Tetherfi@456</t>
   </si>
   <si>
     <t>http://10.133.146.17:56080/SG/UOB_OCM</t>
   </si>
   <si>
-    <t>TetherfiJune@2019</t>
-  </si>
-  <si>
     <t>TetherfiBlr@789</t>
   </si>
   <si>
     <t>abcd1234$</t>
   </si>
   <si>
-    <t>TetherfiBlr@920</t>
-  </si>
-  <si>
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>o</t>
+    <t>Meghna</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
   <si>
     <t>Tetherfi@930</t>
@@ -505,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,19 +530,19 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -562,19 +550,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -588,7 +576,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -598,9 +586,6 @@
       </c>
       <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1">
@@ -611,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -631,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -651,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -671,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -684,113 +669,41 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="10" spans="1:12"/>
+    <row r="11" spans="1:12"/>
+    <row r="12" spans="1:12"/>
+    <row r="13" spans="1:12"/>
+    <row r="14" spans="1:12"/>
+    <row r="15" spans="1:12"/>
+    <row r="16" spans="1:12"/>
+    <row r="17" spans="1:12"/>
+    <row r="18" spans="1:12"/>
+    <row r="19" spans="1:12"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D3">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -799,26 +712,16 @@
     <hyperlink ref="A6" r:id="rId2"/>
     <hyperlink ref="A7" r:id="rId3"/>
     <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C5" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
-    <hyperlink ref="C2" r:id="rId20"/>
-    <hyperlink ref="A2" r:id="rId21"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -896,18 +799,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D985C29-C65A-4783-8362-546112D7F07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C5CCCC-7D30-4667-9E8C-E232242D85D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,10 +152,7 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>P@ssw0rd@123</t>
-  </si>
-  <si>
-    <t>meghna</t>
+    <t>Tetherfi@930</t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -542,10 +539,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>43</v>
@@ -811,9 +808,10 @@
     <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C2" r:id="rId20" xr:uid="{1D5BAB6C-DCB6-4ADB-91AD-0148360226BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,7 +152,10 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>T3th3rfi123!</t>
+    <t>Meghna</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,13 +542,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -808,9 +811,11 @@
     <hyperlink ref="C15" r:id="rId17"/>
     <hyperlink ref="C16" r:id="rId18"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
+    <hyperlink ref="A2" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,10 +152,7 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>Meghna</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
+    <t>T3th3rfi123!</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,7 +505,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,13 +539,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -811,11 +808,9 @@
     <hyperlink ref="C15" r:id="rId17"/>
     <hyperlink ref="C16" r:id="rId18"/>
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
-    <hyperlink ref="A2" r:id="rId20"/>
-    <hyperlink ref="C2" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -16,12 +16,11 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Application URL</t>
   </si>
@@ -152,7 +151,13 @@
     <t>QATetherfi</t>
   </si>
   <si>
-    <t>T3th3rfi123!</t>
+    <t>http://172.16.2.61:45000/Fax/OCM/UI</t>
+  </si>
+  <si>
+    <t>Meghna</t>
+  </si>
+  <si>
+    <t>P@ssw0rd@123</t>
   </si>
 </sst>
 </file>
@@ -494,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +510,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,13 +544,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C10F5B-E41F-4957-A537-AE22E4DD689B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>Application URL</t>
   </si>
@@ -154,16 +155,31 @@
     <t>http://172.16.2.61:45000/Fax/OCM/UI</t>
   </si>
   <si>
-    <t>Meghna</t>
-  </si>
-  <si>
-    <t>P@ssw0rd@123</t>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>aravinda@tetherfi.com</t>
+  </si>
+  <si>
+    <t>http://172.16.2.61:47003/Fax/OCM/UI</t>
+  </si>
+  <si>
+    <t>https://172.16.2.61:42042/UI/</t>
+  </si>
+  <si>
+    <t>Aravinda</t>
+  </si>
+  <si>
+    <t>https://172.16.2.61:47003/Fax/OCM/UI</t>
+  </si>
+  <si>
+    <t>T3th3rfi987$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -499,18 +515,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,9 +536,10 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,18 +558,21 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -561,8 +581,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -582,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -602,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -622,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -642,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -662,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -682,32 +705,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -727,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -744,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -784,43 +807,75 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D5 D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C5" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G2" r:id="rId22" xr:uid="{BE851A1B-F968-49AC-B56B-3BE3D236B2F9}"/>
+    <hyperlink ref="A19" r:id="rId23" xr:uid="{EA265EF4-8759-46D5-8F88-BE35F327C934}"/>
+    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{A7D55041-56C9-412B-9DC6-1311F7751D64}"/>
+    <hyperlink ref="A21" r:id="rId25" xr:uid="{A67C4A62-1E86-43BB-AA52-09BFC77A6E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -863,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C10F5B-E41F-4957-A537-AE22E4DD689B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D69E3730-7F73-4F22-903F-ED0E4AA1E960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Application URL</t>
   </si>
@@ -173,7 +174,16 @@
     <t>https://172.16.2.61:47003/Fax/OCM/UI</t>
   </si>
   <si>
-    <t>T3th3rfi987$</t>
+    <t>https://lab.singtel.tetherfi.cloud:58181/OCM#</t>
+  </si>
+  <si>
+    <t>57ItuC6rG8(t!XlnPt*iC@-Ymwg)-DrX</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>Qwerty@135$</t>
   </si>
 </sst>
 </file>
@@ -523,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +549,7 @@
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,50 +572,50 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -645,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -665,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -685,7 +695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -705,32 +715,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -750,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -767,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -787,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -807,17 +817,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -828,17 +838,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="22" spans="1:7" customFormat="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -864,13 +875,16 @@
     <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="A18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="A16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G2" r:id="rId22" xr:uid="{BE851A1B-F968-49AC-B56B-3BE3D236B2F9}"/>
+    <hyperlink ref="G3" r:id="rId22" xr:uid="{BE851A1B-F968-49AC-B56B-3BE3D236B2F9}"/>
     <hyperlink ref="A19" r:id="rId23" xr:uid="{EA265EF4-8759-46D5-8F88-BE35F327C934}"/>
     <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{A7D55041-56C9-412B-9DC6-1311F7751D64}"/>
     <hyperlink ref="A21" r:id="rId25" xr:uid="{A67C4A62-1E86-43BB-AA52-09BFC77A6E04}"/>
+    <hyperlink ref="A3" r:id="rId26" xr:uid="{76877752-2E31-4FD9-A95E-B6ACC6AFB854}"/>
+    <hyperlink ref="A2" r:id="rId27" xr:uid="{34629AB9-D680-40ED-93AE-B6A5467CDE4B}"/>
+    <hyperlink ref="C2" r:id="rId28" xr:uid="{48D382D6-D0FF-4B38-BB19-049BD4FF554A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D69E3730-7F73-4F22-903F-ED0E4AA1E960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B71CD-6AE0-4784-8963-CC64512E5A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Application URL</t>
   </si>
@@ -180,10 +179,7 @@
     <t>57ItuC6rG8(t!XlnPt*iC@-Ymwg)-DrX</t>
   </si>
   <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>Qwerty@135$</t>
+    <t>T3th3rfi987$</t>
   </si>
 </sst>
 </file>
@@ -533,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,7 +545,7 @@
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,18 +568,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
@@ -592,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -615,7 +611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -655,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -675,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -695,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -715,32 +711,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customFormat="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -760,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customFormat="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -777,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -797,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -817,17 +813,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -838,12 +834,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customFormat="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customFormat="1"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -880,11 +875,9 @@
     <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{A7D55041-56C9-412B-9DC6-1311F7751D64}"/>
     <hyperlink ref="A21" r:id="rId25" xr:uid="{A67C4A62-1E86-43BB-AA52-09BFC77A6E04}"/>
     <hyperlink ref="A3" r:id="rId26" xr:uid="{76877752-2E31-4FD9-A95E-B6ACC6AFB854}"/>
-    <hyperlink ref="A2" r:id="rId27" xr:uid="{34629AB9-D680-40ED-93AE-B6A5467CDE4B}"/>
-    <hyperlink ref="C2" r:id="rId28" xr:uid="{48D382D6-D0FF-4B38-BB19-049BD4FF554A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B71CD-6AE0-4784-8963-CC64512E5A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,11 +16,12 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Application URL</t>
   </si>
@@ -173,19 +173,28 @@
     <t>https://172.16.2.61:47003/Fax/OCM/UI</t>
   </si>
   <si>
-    <t>https://lab.singtel.tetherfi.cloud:58181/OCM#</t>
-  </si>
-  <si>
-    <t>57ItuC6rG8(t!XlnPt*iC@-Ymwg)-DrX</t>
-  </si>
-  <si>
-    <t>T3th3rfi987$</t>
+    <t>https://lab.singtel.tetherfi.cloud:45443/OCMUI</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>Qwerty@135$</t>
+  </si>
+  <si>
+    <t>https://lab.singtel.tetherfi.cloud:35443/OCMUI#</t>
+  </si>
+  <si>
+    <t>tetherfiqa</t>
+  </si>
+  <si>
+    <t>T3th3rf!@12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -521,18 +530,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,16 +579,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>42</v>
@@ -593,10 +602,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -841,40 +850,40 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G3" r:id="rId22" xr:uid="{BE851A1B-F968-49AC-B56B-3BE3D236B2F9}"/>
-    <hyperlink ref="A19" r:id="rId23" xr:uid="{EA265EF4-8759-46D5-8F88-BE35F327C934}"/>
-    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{A7D55041-56C9-412B-9DC6-1311F7751D64}"/>
-    <hyperlink ref="A21" r:id="rId25" xr:uid="{A67C4A62-1E86-43BB-AA52-09BFC77A6E04}"/>
-    <hyperlink ref="A3" r:id="rId26" xr:uid="{76877752-2E31-4FD9-A95E-B6ACC6AFB854}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="C14" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="A15" r:id="rId16"/>
+    <hyperlink ref="C15" r:id="rId17"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
+    <hyperlink ref="A18" r:id="rId20"/>
+    <hyperlink ref="A16" r:id="rId21"/>
+    <hyperlink ref="G3" r:id="rId22"/>
+    <hyperlink ref="A19" r:id="rId23"/>
+    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123"/>
+    <hyperlink ref="A21" r:id="rId25"/>
+    <hyperlink ref="C3" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId27"/>
@@ -882,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Application URL</t>
   </si>
@@ -182,13 +182,7 @@
     <t>Qwerty@135$</t>
   </si>
   <si>
-    <t>https://lab.singtel.tetherfi.cloud:35443/OCMUI#</t>
-  </si>
-  <si>
-    <t>tetherfiqa</t>
-  </si>
-  <si>
-    <t>T3th3rf!@12345</t>
+    <t>pSHS-Iq;DXfKp;dAw;Lfufub&amp;CEL*-tD</t>
   </si>
 </sst>
 </file>
@@ -530,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,7 +535,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,13 +573,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54D081-74FD-47E2-A058-81500A601794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,6 @@
     <definedName name="UserType">Sheet1!$B$1:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -524,28 +524,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -844,40 +844,40 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A12" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="C14" r:id="rId14"/>
-    <hyperlink ref="C5" r:id="rId15"/>
-    <hyperlink ref="A15" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123"/>
-    <hyperlink ref="A18" r:id="rId20"/>
-    <hyperlink ref="A16" r:id="rId21"/>
-    <hyperlink ref="G3" r:id="rId22"/>
-    <hyperlink ref="A19" r:id="rId23"/>
-    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123"/>
-    <hyperlink ref="A21" r:id="rId25"/>
-    <hyperlink ref="C3" r:id="rId26"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId27"/>
@@ -885,17 +885,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -928,16 +928,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54D081-74FD-47E2-A058-81500A601794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68ADB0-464A-4CC2-A081-5A08A8BA733A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Application URL</t>
   </si>
@@ -83,9 +83,6 @@
     <t>http://172.16.2.16/OCM/</t>
   </si>
   <si>
-    <t>IndiaTetherfi</t>
-  </si>
-  <si>
     <t>Cheker</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>abcd1234$</t>
   </si>
   <si>
-    <t>TetherfiBlr@920</t>
-  </si>
-  <si>
     <t>http://172.16.2.61:1616/UI#</t>
   </si>
   <si>
@@ -161,19 +155,28 @@
     <t>aravinda@tetherfi.com</t>
   </si>
   <si>
-    <t>http://172.16.2.61:47003/Fax/OCM/UI</t>
-  </si>
-  <si>
-    <t>https://172.16.2.61:42042/UI/</t>
-  </si>
-  <si>
-    <t>Aravinda</t>
-  </si>
-  <si>
-    <t>https://172.16.2.61:47003/Fax/OCM/UI</t>
-  </si>
-  <si>
-    <t>https://lab.singtel.tetherfi.cloud:45443/OCMUI</t>
+    <t>santosh.koujalagi@tetherfi.com</t>
+  </si>
+  <si>
+    <t>https://lab.singtel.tetherfi.cloud:35443/OCMUI#</t>
+  </si>
+  <si>
+    <t>tetherfiqa</t>
+  </si>
+  <si>
+    <t>tethuser</t>
+  </si>
+  <si>
+    <t>T3th3rf!@12345</t>
+  </si>
+  <si>
+    <t>T3th3rfi765$</t>
+  </si>
+  <si>
+    <t>https://lab.singtel.tetherfi.cloud:45443/OCMUI#</t>
+  </si>
+  <si>
+    <t>pSHS-Iq;DXfKp;dAw;Lfufub&amp;CEL*-tD</t>
   </si>
   <si>
     <t>testuser</t>
@@ -182,7 +185,7 @@
     <t>Qwerty@135$</t>
   </si>
   <si>
-    <t>pSHS-Iq;DXfKp;dAw;Lfufub&amp;CEL*-tD</t>
+    <t>T3th3rfi768$</t>
   </si>
 </sst>
 </file>
@@ -532,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -568,50 +571,53 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -622,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -642,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -656,13 +662,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -676,13 +682,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -696,13 +702,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -716,7 +722,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -726,28 +732,40 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -761,36 +779,36 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -798,56 +816,75 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D5 D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>(LoginType)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F14 F16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5 F14 F16 F19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>(UserType)</formula1>
     </dataValidation>
   </dataValidations>
@@ -858,29 +895,33 @@
     <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C17" r:id="rId19" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C20" r:id="rId24" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId16" display="TetherfiBlr@920" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId17" display="P@ssw0rd@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G3" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A19" r:id="rId22" xr:uid="{2912E692-B596-40A4-AA0C-32CAA79944F7}"/>
+    <hyperlink ref="A20" r:id="rId23" xr:uid="{8830BA1A-48B0-4FBA-90D6-5CDA3C95ABF2}"/>
+    <hyperlink ref="A2" r:id="rId24" xr:uid="{21A4A205-80EA-400C-9394-C4F7371C08FF}"/>
+    <hyperlink ref="C19" r:id="rId25" xr:uid="{CE513743-7A94-4BE7-B921-F64EC61C83A9}"/>
+    <hyperlink ref="C3" r:id="rId26" display="P@ssw0rd@123" xr:uid="{9E4139CB-7D8B-4353-9C1A-75D41179D415}"/>
+    <hyperlink ref="C2" r:id="rId27" display="TetherfiBlr@920" xr:uid="{B8B16ABE-D08F-4268-8C94-D565C2BC26D2}"/>
+    <hyperlink ref="A11" r:id="rId28" xr:uid="{569AD60C-B887-4D97-920A-96FC85F757AD}"/>
+    <hyperlink ref="A12" r:id="rId29" xr:uid="{A0ED84AA-DE9A-43B3-AADA-3627AD29117C}"/>
+    <hyperlink ref="A3" r:id="rId30" xr:uid="{9CCF7984-6C03-4951-AD2E-150936CC985F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -892,10 +933,10 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -935,9 +976,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -958,26 +999,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68ADB0-464A-4CC2-A081-5A08A8BA733A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8198A3-3821-4B97-8C07-A7DE982C93D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8198A3-3821-4B97-8C07-A7DE982C93D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B0D60-0FB0-4BDF-A7A3-8E76D0383C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>Qwerty@135$</t>
   </si>
   <si>
-    <t>T3th3rfi768$</t>
+    <t>T3th3rfi778$</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B0D60-0FB0-4BDF-A7A3-8E76D0383C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B4CB4D-66C7-4CAD-9DE2-8013AE7DCE19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Application URL</t>
   </si>
@@ -185,7 +185,10 @@
     <t>Qwerty@135$</t>
   </si>
   <si>
-    <t>T3th3rfi778$</t>
+    <t>http://172.16.2.61:1616/OCMBetaUI#</t>
+  </si>
+  <si>
+    <t>T3th3rfi788$</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -576,16 +579,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -599,7 +602,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -608,7 +611,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>

--- a/ocms/target/test-classes/TestData/LoginData.xlsx
+++ b/ocms/target/test-classes/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B4CB4D-66C7-4CAD-9DE2-8013AE7DCE19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A9618-B14A-47F4-B830-2211D55D5940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,10 +185,10 @@
     <t>Qwerty@135$</t>
   </si>
   <si>
-    <t>http://172.16.2.61:1616/OCMBetaUI#</t>
-  </si>
-  <si>
-    <t>T3th3rfi788$</t>
+    <t>T3th3rfi789$</t>
+  </si>
+  <si>
+    <t>http://172.16.2.61:3636/OCMBetaUI#</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -579,13 +579,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -915,16 +915,14 @@
     <hyperlink ref="G3" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="A19" r:id="rId22" xr:uid="{2912E692-B596-40A4-AA0C-32CAA79944F7}"/>
     <hyperlink ref="A20" r:id="rId23" xr:uid="{8830BA1A-48B0-4FBA-90D6-5CDA3C95ABF2}"/>
-    <hyperlink ref="A2" r:id="rId24" xr:uid="{21A4A205-80EA-400C-9394-C4F7371C08FF}"/>
-    <hyperlink ref="C19" r:id="rId25" xr:uid="{CE513743-7A94-4BE7-B921-F64EC61C83A9}"/>
-    <hyperlink ref="C3" r:id="rId26" display="P@ssw0rd@123" xr:uid="{9E4139CB-7D8B-4353-9C1A-75D41179D415}"/>
-    <hyperlink ref="C2" r:id="rId27" display="TetherfiBlr@920" xr:uid="{B8B16ABE-D08F-4268-8C94-D565C2BC26D2}"/>
-    <hyperlink ref="A11" r:id="rId28" xr:uid="{569AD60C-B887-4D97-920A-96FC85F757AD}"/>
-    <hyperlink ref="A12" r:id="rId29" xr:uid="{A0ED84AA-DE9A-43B3-AADA-3627AD29117C}"/>
-    <hyperlink ref="A3" r:id="rId30" xr:uid="{9CCF7984-6C03-4951-AD2E-150936CC985F}"/>
+    <hyperlink ref="C19" r:id="rId24" xr:uid="{CE513743-7A94-4BE7-B921-F64EC61C83A9}"/>
+    <hyperlink ref="C3" r:id="rId25" display="P@ssw0rd@123" xr:uid="{9E4139CB-7D8B-4353-9C1A-75D41179D415}"/>
+    <hyperlink ref="C2" r:id="rId26" display="TetherfiBlr@920" xr:uid="{B8B16ABE-D08F-4268-8C94-D565C2BC26D2}"/>
+    <hyperlink ref="A11" r:id="rId27" xr:uid="{569AD60C-B887-4D97-920A-96FC85F757AD}"/>
+    <hyperlink ref="A12" r:id="rId28" xr:uid="{A0ED84AA-DE9A-43B3-AADA-3627AD29117C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
